--- a/git-mingling.xlsx
+++ b/git-mingling.xlsx
@@ -19,41 +19,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>切换到某个文件下，创建repository</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git --version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查看版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置全局文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global user.name "darren"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global user.email "darren2185@126.com"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置当前库的作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置当前库作者的邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global alias.st status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>配置命令别名，可以将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>替换成其他任何命令</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global color.ui true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git命令中开启颜色显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git init </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件夹（也即库名）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add welcome.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加文件到版本库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -m "msg"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交到文件库，并必须附注提交内容说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git grep 'pattern'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从版本库中检索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pattern</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查当前库的状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,7 +234,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,13 +515,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="61.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -411,18 +551,101 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/git-mingling.xlsx
+++ b/git-mingling.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -174,6 +174,300 @@
   </si>
   <si>
     <t>检查当前库的状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rev-parse --git-dir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rev-parse --show-toplevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示工作区的根目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示.git目录所在的位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rev-parse --show-prefix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对于工作区的相对目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config -e --global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑全局配置文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config -e --system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑系统配置文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --unset --global user.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除全局文件中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user.name</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --unset --global user.email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config user.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config user.email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看全局文件中的用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看全局文件中的用户邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit --allow-empty -m "msg"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许空白提交（无任何文件修改）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log --pretty=fuller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志全显</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit --amend --allow-empty --reset-author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>--amend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对刚刚提交进行修补</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>--allow-empty使得空表提交被允许</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>’--reset-author将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同步修改</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>master为分支，提交到github中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log --state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查看提交日志，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以看到每次提交的文件变更统计</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看修改后的文件与版本库中的文件差异</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git status -s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查看文件信息，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简化信息量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout -- filename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销工作区尚未提交的的修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git ls-tree -l HEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查看暂存区及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的目录树</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -fd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除当前工作区中没有加入版本库的文件和目录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -232,9 +526,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -644,8 +940,171 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/git-mingling.xlsx
+++ b/git-mingling.xlsx
@@ -22,59 +22,59 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>切换到某个文件下，创建repository</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git --version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config --global</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置全局文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config --global user.name "darren"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config --global user.email "darren2185@126.com"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置当前库的作者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置当前库作者的邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config --global alias.st status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -101,15 +101,15 @@
       </rPr>
       <t>替换成其他任何命令</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config --global color.ui true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Git命令中开启颜色显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -126,31 +126,31 @@
       </rPr>
       <t>文件夹（也即库名）</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创建名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git add welcome.txt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>添加文件到版本库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git commit -m "msg"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提交到文件库，并必须附注提交内容说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git grep 'pattern'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -166,59 +166,59 @@
       </rPr>
       <t>pattern</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检查当前库的状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git rev-parse --git-dir</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git rev-parse --show-toplevel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显示工作区的根目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显示.git目录所在的位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git rev-parse --show-prefix</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相对于工作区的相对目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config -e --global</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编辑全局配置文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config -e --system</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编辑系统配置文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config --unset --global user.name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -234,47 +234,47 @@
       </rPr>
       <t>user.name</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config --unset --global user.email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config user.name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git config user.email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看全局文件中的用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看全局文件中的用户邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git commit --allow-empty -m "msg"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>允许空白提交（无任何文件修改）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git log --pretty=fuller</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日志全显</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git commit --amend --allow-empty --reset-author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -291,11 +291,11 @@
       </rPr>
       <t>对刚刚提交进行修补</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>--allow-empty使得空表提交被允许</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -343,19 +343,15 @@
       </rPr>
       <t>同步修改</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git push origin master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>master为分支，提交到github中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git log --state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -382,19 +378,19 @@
       </rPr>
       <t>可以看到每次提交的文件变更统计</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git diff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看修改后的文件与版本库中的文件差异</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git status -s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -421,19 +417,19 @@
       </rPr>
       <t>简化信息量</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git checkout -- filename</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>撤销工作区尚未提交的的修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git ls-tree -l HEAD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -460,29 +456,26 @@
       </rPr>
       <t>中的目录树</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>git clean -fd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>清除当前工作区中没有加入版本库的文件和目录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log --stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,9 +521,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1056,54 +1049,54 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/git-mingling.xlsx
+++ b/git-mingling.xlsx
@@ -19,62 +19,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>切换到某个文件下，创建repository</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git --version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查看版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config --global</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>配置全局文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config --global user.name "darren"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config --global user.email "darren2185@126.com"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>配置当前库的作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>配置当前库作者的邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config --global alias.st status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -101,15 +101,15 @@
       </rPr>
       <t>替换成其他任何命令</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config --global color.ui true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Git命令中开启颜色显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -126,31 +126,31 @@
       </rPr>
       <t>文件夹（也即库名）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git add welcome.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>添加文件到版本库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git commit -m "msg"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>提交到文件库，并必须附注提交内容说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git grep 'pattern'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -166,59 +166,59 @@
       </rPr>
       <t>pattern</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>检查当前库的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git rev-parse --git-dir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git rev-parse --show-toplevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>显示工作区的根目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>显示.git目录所在的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git rev-parse --show-prefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>相对于工作区的相对目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config -e --global</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编辑全局配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config -e --system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编辑系统配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config --unset --global user.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -234,47 +234,47 @@
       </rPr>
       <t>user.name</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config --unset --global user.email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config user.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git config user.email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查看全局文件中的用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查看全局文件中的用户邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git commit --allow-empty -m "msg"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>允许空白提交（无任何文件修改）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git log --pretty=fuller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日志全显</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git commit --amend --allow-empty --reset-author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -291,11 +291,11 @@
       </rPr>
       <t>对刚刚提交进行修补</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>--allow-empty使得空表提交被允许</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -343,15 +343,15 @@
       </rPr>
       <t>同步修改</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git push origin master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>master为分支，提交到github中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -378,19 +378,19 @@
       </rPr>
       <t>可以看到每次提交的文件变更统计</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git diff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查看修改后的文件与版本库中的文件差异</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git status -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -417,19 +417,19 @@
       </rPr>
       <t>简化信息量</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git checkout -- filename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>撤销工作区尚未提交的的修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git ls-tree -l HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -456,26 +456,80 @@
       </rPr>
       <t>中的目录树</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git clean -fd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>清除当前工作区中没有加入版本库的文件和目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>git log --stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与暂存库的差异对比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff HEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的差异对比</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git stash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存当前工作进度（慎用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,9 +575,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1055,7 +1109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" ht="15" customHeight="1">
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -1063,40 +1117,64 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" ht="15" customHeight="1">
       <c r="B31" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15" customHeight="1">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/git-mingling.xlsx
+++ b/git-mingling.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -515,6 +515,22 @@
   </si>
   <si>
     <t>保存当前工作进度（慎用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log -l --pretty=raw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log pretty=oneline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提交日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提交日志，只显示单行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -858,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1109,67 +1125,83 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="15" customHeight="1">
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" customHeight="1">
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15" customHeight="1">
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15" customHeight="1">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>71</v>
       </c>
     </row>

--- a/git-mingling.xlsx
+++ b/git-mingling.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -518,19 +518,198 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>git log -l --pretty=raw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git log pretty=oneline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看提交日志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查看提交日志，只显示单行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git status -s -b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看分支信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git log --pretty=oneline </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log -l --pretty=raw --graph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提交日志,图表形式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log -l HEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log -l master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log -l refs/heads/master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HEAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查看远程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>git cat-file -t 40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位数字</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>git cat-file -p 40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位数字</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rev-parse (master\refs/heads/master\HEAD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查看引用对用的提交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git cat-file blod HEAD:welcome.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看文件内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git cat-file blod HEAD:welcome.txt |wc -c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看文件有多少字节</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -874,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1127,82 +1306,154 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15" customHeight="1">
+      <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" customHeight="1">
-      <c r="B33" t="s">
+    <row r="36" spans="2:3" ht="15" customHeight="1">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15" customHeight="1">
-      <c r="B34" t="s">
+    <row r="37" spans="2:3" ht="15" customHeight="1">
+      <c r="B37" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/git-mingling.xlsx
+++ b/git-mingling.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -710,6 +710,152 @@
   </si>
   <si>
     <t>查看文件有多少字节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard HEAD^</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard HEAD@{2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前两步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard HEAD^^</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard 057cb6b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>跳转到某条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commit id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reflog show master | head -5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查看最新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条操作记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --soft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --mixed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会影响版本库、暂存区及工作区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只更改指向，不影响其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改指向，重置暂存区，但不改变工作区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改指向，重置暂存区，但不改变工作区（将暂存区的内容撤出）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --filename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>撤出暂存区，其他文件不受影响</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset HEAD filename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rest --soft HEAD^</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作区和暂存区不改变，引用向前一次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1053,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1456,6 +1602,102 @@
         <v>89</v>
       </c>
     </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
